--- a/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
+++ b/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountCreate" sheetId="2" r:id="rId1"/>
@@ -137,63 +137,63 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -206,7 +206,7 @@
   </si>
   <si>
     <t>CashAccountCreate-001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>绑定收款账户成功</t>
@@ -248,7 +248,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -271,7 +271,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -280,7 +280,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value []; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -293,7 +293,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -302,7 +302,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantAccountId为空</t>
@@ -318,7 +318,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -327,7 +327,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantAccountId': rejected value []; codes [NotBlank.cashAccountRequest.tenantAccountId,NotBlank.tenantAccountId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantAccountId,tenantAccountId]; arguments []; default message [tenantAccountId]]; default message [渠道收还款账户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-param为空</t>
@@ -338,7 +338,7 @@
     "resMsg": "参数异常",
     "successful": 0
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId缺失</t>
@@ -353,7 +353,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -365,7 +365,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -374,7 +374,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -387,7 +387,7 @@
  }
 }
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -396,7 +396,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantAccountId缺失</t>
@@ -411,7 +411,7 @@
   "ICBC":"6222888899991212"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -431,7 +431,7 @@
  "tenantUserId":"1",
  "tenantAccountId":"2"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CashAccountCreate-002</t>
@@ -474,27 +474,15 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"199991",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "tenantAccountId":"0123",
- "params":{
-"ICBC":"6222888899313"
- }
-}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>0123,ICBC,6************</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,27 +499,27 @@
       </rPr>
       <t>OST</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>000113,0123,success</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -539,31 +527,31 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_account_id,key_name,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_account_id,key_name,key_value from cash_account_item where tenant_account_id = 4 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4,ICBC,6**************</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,tenant_account_id,account_status from cash_account where tenant_account_id =0123</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,tenant_account_id,account_status from cash_account where tenant_account_id =4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>000113,4,success</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -575,7 +563,7 @@
 "ICBC":"6222888899313"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -585,7 +573,39 @@
  "tenantAccountId":"2",
  "params": {}
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "requestId":"1331",
+ "tenantUserId":"1114",
+ "tenantAccountId":"2ab",
+ "params":
+ {
+  "ICBC":"6222888899991212"
+ }
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"199991",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "tenantAccountId":"0123",
+ "params":{
+"ICBC":"6222888899313"
+ }
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -598,75 +618,72 @@
   "ICBC":"654398761222112"
  }
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"1001",
- "requestId":"1331",
- "tenantUserId":"1114",
- "tenantAccountId":"2ab",
- "params":
- {
-  "ICBC":"6222888899991212"
- }
-}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_account_id =0123 and tenant_user_id = 000113;
-delete from cash_account_item where tenant_account_id = 0123</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into cash_account_item values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
-insert into cash_account values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = 1331;
 delete from cash_account where tenant_account_id = 4;
 delete from cash_account_item where tenant_account_id = 4;
 delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_account_id =0123 and tenant_user_id = 000113;
+delete from cash_account where tenant_account_id =0123 ;
 delete from cash_account_item where tenant_account_id = 0123</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = 199991;
+delete from user_request_serial where tenant_id = 1001;
+delete from cash_account where tenant_account_id =0123 ;
+delete from cash_account_item where tenant_account_id = 0123</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_request_serial (id,request_id,tenant_id,tenant_user_id,type,status,create_time,update_time) values ("999","1331","1001","000112","1","1","2020-04-14 15:31:11","2020-04-14 15:31:11")
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id=1331;
+delete from user_request_serial where id=999;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_account_id =0123 and tenant_user_id = 000113;
+delete from cash_account where tenant_account_id =0123 ;
 delete from cash_account_item where tenant_account_id = 0123</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_request_serial values ("999","1331","1001","000112","1","1","2020-04-14 15:31:11","2020-04-14 15:31:11")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,187 +859,193 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1377,19 +1400,19 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="P1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="Q1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="175.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1401,7 +1424,7 @@
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="50" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>62</v>
@@ -1409,29 +1432,29 @@
       <c r="I2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>65</v>
-      </c>
       <c r="O2" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="208.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="345" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1441,11 +1464,11 @@
       <c r="C3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>62</v>
@@ -1453,29 +1476,29 @@
       <c r="I3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>81</v>
+      <c r="J3" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="100" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="272" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1487,11 +1510,11 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>62</v>
@@ -1499,17 +1522,17 @@
       <c r="I4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>66</v>
+      <c r="J4" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="46"/>
-      <c r="O4" s="55"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="140">
       <c r="A5" s="6" t="s">
@@ -1523,11 +1546,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>88</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>82</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>62</v>
@@ -1535,17 +1558,17 @@
       <c r="I5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="53" t="s">
-        <v>66</v>
+      <c r="J5" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="56"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="140">
       <c r="A6" s="6" t="s">
@@ -1567,8 +1590,8 @@
       <c r="I6" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>66</v>
+      <c r="J6" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>26</v>
@@ -1577,7 +1600,7 @@
         <v>27</v>
       </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="56"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="252">
       <c r="A7" s="6" t="s">
@@ -1599,8 +1622,8 @@
       <c r="I7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>66</v>
+      <c r="J7" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>29</v>
@@ -1609,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="56"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="266">
       <c r="A8" s="6" t="s">
@@ -1631,8 +1654,8 @@
       <c r="I8" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="53" t="s">
-        <v>66</v>
+      <c r="J8" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>31</v>
@@ -1641,7 +1664,7 @@
         <v>32</v>
       </c>
       <c r="N8" s="16"/>
-      <c r="O8" s="56"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="266">
       <c r="A9" s="6" t="s">
@@ -1663,8 +1686,8 @@
       <c r="I9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>66</v>
+      <c r="J9" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>34</v>
@@ -1695,17 +1718,17 @@
       <c r="I10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>66</v>
+      <c r="J10" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="16"/>
-      <c r="O10" s="56"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:17" ht="126">
       <c r="A11" s="6" t="s">
@@ -1727,8 +1750,8 @@
       <c r="I11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>66</v>
+      <c r="J11" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>39</v>
@@ -1759,8 +1782,8 @@
       <c r="I12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="53" t="s">
-        <v>66</v>
+      <c r="J12" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>40</v>
@@ -1789,8 +1812,8 @@
       <c r="I13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>66</v>
+      <c r="J13" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>42</v>
@@ -1819,8 +1842,8 @@
       <c r="I14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>66</v>
+      <c r="J14" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>45</v>
@@ -1849,8 +1872,8 @@
       <c r="I15" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>66</v>
+      <c r="J15" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>48</v>
@@ -1894,7 +1917,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="27"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="57"/>
+      <c r="O17" s="56"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
@@ -1932,7 +1955,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="27"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
@@ -4801,7 +4824,7 @@
       <c r="M189" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3:H15" r:id="rId2" display="https://user-center-thu.tunaikita.id/cashAccount"/>

--- a/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
+++ b/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/CashAccountCreate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/CashAccountCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="340" yWindow="-22580" windowWidth="39940" windowHeight="22580"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountCreate" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -444,10 +444,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,account_status from cash_account where tenant_account_id =0123</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>000113,success</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -803,16 +799,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
   </si>
   <si>
@@ -904,10 +890,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_account_id,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC2"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0123,2************</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -920,10 +902,6 @@
   </si>
   <si>
     <t>{"resCode":"E0001","resMsg":"系统错误","successful":0,"data":"Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.addBankCard(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantAccountId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantAccountId,NotBlank.tenantAccountId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantAccountId,tenantAccountId]; arguments []; default message [tenantAccountId]]; default message [渠道收还款账户编号不能为空]] "}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_account_id,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "phone"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -935,6 +913,30 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
 insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/cashAccount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123,7************,2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_account_id,key_value,version from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123,1**********</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -951,27 +953,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://user-center-thu.tunaikita.id/cashAccount</t>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>0123,7************,2</t>
+    <t>select tenant_account_id,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "phone"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_account_id,key_value,version from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <t>delete from user_request_serial where request_id = "199991";
+delete from cash_account where tenant_account_id ="0123" ;
+delete from cash_account_item where tenant_account_id = "0123";
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0123,1**********</t>
+    <t>select tenant_user_id,account_status from cash_account where tenant_account_id =0123 and tenant_id="1001"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_account_id,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_account_id,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select tenant_user_id,account_status from cash_account where tenant_account_id ="0123"  and tenant_id = "1001" 
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1635,9 +1653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1721,30 +1739,30 @@
         <v>52</v>
       </c>
       <c r="S1" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="49" t="s">
         <v>64</v>
-      </c>
-      <c r="T1" s="49" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="278" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>46</v>
@@ -1756,7 +1774,7 @@
         <v>48</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>57</v>
@@ -1765,42 +1783,42 @@
         <v>58</v>
       </c>
       <c r="P2" s="53" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="53" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="S2" s="54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="T2" s="53" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="345" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J3" s="45" t="s">
         <v>47</v>
@@ -1809,16 +1827,16 @@
         <v>48</v>
       </c>
       <c r="L3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="54" t="s">
+      <c r="P3" s="53" t="s">
         <v>67</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>68</v>
       </c>
       <c r="Q3" s="46" t="s">
         <v>54</v>
@@ -1827,32 +1845,32 @@
         <v>53</v>
       </c>
       <c r="S3" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T3" s="53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
@@ -1864,42 +1882,42 @@
         <v>48</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N4" s="46" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43"/>
       <c r="F5" s="5"/>
       <c r="G5" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
         <v>46</v>
@@ -1909,27 +1927,27 @@
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="46" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R5" s="53" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="150" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>36</v>
@@ -1941,10 +1959,10 @@
       <c r="E6" s="44"/>
       <c r="F6" s="5"/>
       <c r="G6" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -1966,17 +1984,17 @@
     </row>
     <row r="7" spans="1:20" ht="150" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1991,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>19</v>
@@ -2001,7 +2019,7 @@
     </row>
     <row r="8" spans="1:20" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -2034,7 +2052,7 @@
     </row>
     <row r="9" spans="1:20" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>39</v>
@@ -2046,10 +2064,10 @@
       <c r="E9" s="44"/>
       <c r="F9" s="5"/>
       <c r="G9" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -2061,7 +2079,7 @@
         <v>48</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>26</v>
@@ -2071,7 +2089,7 @@
     </row>
     <row r="10" spans="1:20" ht="300" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>40</v>
@@ -2094,7 +2112,7 @@
         <v>48</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>24</v>
@@ -2104,7 +2122,7 @@
     </row>
     <row r="11" spans="1:20" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>41</v>
@@ -2137,7 +2155,7 @@
     </row>
     <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -2160,7 +2178,7 @@
         <v>48</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>26</v>
@@ -2170,7 +2188,7 @@
     </row>
     <row r="13" spans="1:20" ht="270" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>43</v>
@@ -2201,7 +2219,7 @@
     </row>
     <row r="14" spans="1:20" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>44</v>
@@ -2213,10 +2231,10 @@
       <c r="E14" s="44"/>
       <c r="F14" s="5"/>
       <c r="G14" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>46</v>
@@ -2228,7 +2246,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>26</v>
@@ -2236,7 +2254,7 @@
     </row>
     <row r="15" spans="1:20" ht="240" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>45</v>
@@ -2259,18 +2277,18 @@
         <v>48</v>
       </c>
       <c r="L15" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>31</v>

--- a/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
+++ b/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="-22580" windowWidth="39940" windowHeight="22580"/>
+    <workbookView xWindow="-380" yWindow="-15980" windowWidth="39940" windowHeight="22580"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountCreate" sheetId="2" r:id="rId1"/>
@@ -1654,8 +1654,8 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P4" sqref="P4"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
+++ b/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-380" yWindow="-15980" windowWidth="39940" windowHeight="22580"/>
+    <workbookView xWindow="-1640" yWindow="-22160" windowWidth="39940" windowHeight="22580"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountCreate" sheetId="2" r:id="rId1"/>
@@ -1653,9 +1653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
+++ b/src/main/resources/caseconf/CashAccountCreate/Case_CashAccountCreate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/CashAccountCreate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Data_Center_Platform/src/main/resources/caseconf/CashAccountCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1640" yWindow="-22160" windowWidth="39940" windowHeight="22580"/>
+    <workbookView xWindow="-1640" yWindow="-22580" windowWidth="39940" windowHeight="22580"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountCreate" sheetId="2" r:id="rId1"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>serviceEnv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -916,10 +912,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0123,7************,2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -990,6 +982,14 @@
   <si>
     <t xml:space="preserve">select tenant_user_id,account_status from cash_account where tenant_account_id ="0123"  and tenant_id = "1001" 
 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/cashAccount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceEnv</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1654,8 +1654,8 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1672,7 @@
     <col min="10" max="10" width="29.83203125" style="8" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" style="14" customWidth="1"/>
     <col min="12" max="12" width="43.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="42.6640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="25.33203125" style="8" customWidth="1"/>
     <col min="16" max="16" width="65.83203125" style="9" customWidth="1"/>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1709,323 +1709,323 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="Q1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="R1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="49" t="s">
-        <v>52</v>
-      </c>
       <c r="S1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="49" t="s">
         <v>63</v>
-      </c>
-      <c r="T1" s="49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="278" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="47" t="s">
-        <v>109</v>
-      </c>
       <c r="I2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="53" t="s">
         <v>106</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="345" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="53" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" s="53" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="K4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L4" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43"/>
       <c r="F5" s="5"/>
       <c r="G5" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>47</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="150" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="44"/>
       <c r="F6" s="5"/>
       <c r="G6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="K6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L6" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="150" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="K7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="44"/>
@@ -2033,69 +2033,69 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="K8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:20" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="44"/>
       <c r="F9" s="5"/>
       <c r="G9" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="K9" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L9" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="300" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="44"/>
@@ -2103,32 +2103,32 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="K10" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L10" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:20" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="44"/>
@@ -2136,32 +2136,32 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="K11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L11" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="44"/>
@@ -2169,32 +2169,32 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="K12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L12" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:20" ht="270" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="44"/>
@@ -2202,65 +2202,65 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="K13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="44"/>
       <c r="F14" s="5"/>
       <c r="G14" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="K14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L14" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="240" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="44"/>
@@ -2268,30 +2268,30 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="K15" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L15" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="44"/>
@@ -2299,20 +2299,20 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="K16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="L16" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="44"/>
       <c r="N16" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
